--- a/spec/fixtures/test/users.xlsx
+++ b/spec/fixtures/test/users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H120"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2771,7 +2771,7 @@
         <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>149</v>
